--- a/workua_jobs.xlsx
+++ b/workua_jobs.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,115 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Company_Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Salary_info</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Аналітик консолідованої інформації відділу продажів, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6777838/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Андрушівський маслосирзавод</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Андрушівський маслосирзавод</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Бізнес-аналітик (департамент адміністрування активних операцій), вакансія від 3 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7111834/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Банк Південний</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Банк Південний</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Хімік-аналітик, вакансія від 3 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7340500/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Єнні Фудз, ПрАТ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Єнні Фудз, ПрАТ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15 000 грн</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/workua_jobs.xlsx
+++ b/workua_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,73 +463,1134 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Аналітик консолідованої інформації відділу продажів, вакансія від 4 листопада 2025</t>
+          <t>Data analyst, аналітик 1С у Зазимʼє, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6777838/</t>
+          <t>https://www.work.ua/jobs/5123740/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Андрушівський маслосирзавод</t>
+          <t>Аква Родос</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Андрушівський маслосирзавод</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Аква Родос</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50 000 грн</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Бізнес-аналітик (департамент адміністрування активних операцій), вакансія від 3 листопада 2025</t>
+          <t>Фінансовий аналітик (управлінський і бухгалтерський облік), вакансія від 3 листопада 2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7111834/</t>
+          <t>https://www.work.ua/jobs/7208020/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Банк Південний</t>
+          <t>NDA Recruitment</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Банк Південний</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>, Агенція</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Хімік-аналітик, вакансія від 3 листопада 2025</t>
+          <t>Фінансовий аналітик, вакансія від 31 жовтня 2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7340500/</t>
+          <t>https://www.work.ua/jobs/7119214/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Єнні Фудз, ПрАТ</t>
+          <t>NDA Recruitment</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Єнні Фудз, ПрАТ</t>
+          <t>, Агенція</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15 000 грн</t>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Менеджер з комерційної аналітики, вакансія від 31 жовтня 2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7331443/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NDA Recruitment</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>, Агенція</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Middle Data, Product Analyst, вакансія від 30 жовтня 2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6785923/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Work.ua</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Work.ua</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Technical QA, Business Analyst (SaaS Platform), вакансія від 30 жовтня 2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7326622/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BlueBox</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BlueBox</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60 000-80 000 грн</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Business Analyst (ІТ), вакансія від 29 жовтня 2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7307461/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>АТБ-маркет</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>АТБ-маркет</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Бізнес-аналітик (ERP Odoo), вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/5032993/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Фінансовий аналітик, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7345855/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UDP Renewables</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UDP Renewables</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40 000 грн</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Data-аналітик (FMCG-сегмент), вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7345798/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Обертоси, ТМ</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Обертоси, ТМ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31 000-35 000 грн</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Бізнес-аналітик, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7345774/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Odd Systems</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Odd Systems</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Майстер, аналітик з ціноутворення з вартості послуг електропостачання, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7345735/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Луцька філія Волинського обласного центру зайнятості</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>, Агенція</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>18 000 грн</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Middle Business Data Analyst/BI engineer, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7083883/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Nix</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nix</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Бізнес-аналітик, консультант (BAS КУП, ERP), вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7184089/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Бізнес-аналітик, консультант (BAS ERP 2.5), вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/5379004/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Провідний експерт, аналітик програми з питань житла, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6587908/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Caritas Ukraine</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Caritas Ukraine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Бізнес-аналітик 1С, впроваджувач (ІТ), вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/3490532/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Комплексне управління бізнес-процесами, ТОВ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Комплексне управління бізнес-процесами, ТОВ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Бізнес-аналітик, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6707527/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Югфуд</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Югфуд</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7321537/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ISpeedToLead</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ISpeedToLead</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Аналітик, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7262116/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Hegelmann Transporte</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hegelmann Transporte</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>19 000-21 500 грн</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Аналітик Power BI, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7265059/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Рейд, 17 Полтавська бригада НГУ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Рейд, 17 Полтавська бригада НГУ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25 000-125 000 грн</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Аналітик з макроекономічного та фінансового прогнозування і моделювання, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6732610/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ощадбанк</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ощадбанк</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Аналітик у відділ внутрішньої безпеки, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7318216/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6 центр рекрутингу Сил Безпілотних Систем</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6 центр рекрутингу Сил Безпілотних Систем</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>50 000 грн</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Кредитний аналітик департаменту малого та середнього бізнесу, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/5532751/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>UGB еко банк країни (АБ УКРГАЗБАНК)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UGB еко банк країни (АБ УКРГАЗБАНК)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Аналітик департаменту електронної комерції (e-commerce) у Київ, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7261519/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Prostor</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Prostor</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Technical Analyst, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6239165/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Vipcem</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Vipcem</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Бізнес-аналітик, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7344928/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Team Play, Recruiting agency</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>, Агенція</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>60 000-80 000 грн</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Аналітик бізнес-процесів, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6810310/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Подорожник, мережа аптек</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Подорожник, мережа аптек</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Big Data analyst, аналітик даних, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7084639/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Київстар</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Київстар</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Аналітик складського обліку, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/4924845/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Прогрес, ТОВ (машинобудування)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Прогрес, ТОВ (машинобудування)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Data analyst, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7115023/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ajax Systems</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Ajax Systems</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Аналітик/аналітикиня відділу аналізу кредитних ризиків бізнес-клієнтів, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7010602/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ПроКредит Банк</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ПроКредит Банк</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Аналітик 1С, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6916918/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>STV group</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>STV group</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Аналітик 1C ВАS, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6426736/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Укрпромінвест-Агро</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Укрпромінвест-Агро</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Business Analyst Trainee (Individual Training, BA Internship), вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6512380/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SysGears</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SysGears</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Помічник фінансового аналітика, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7021831/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Контракт Продрезерв 5, ТОВ</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Контракт Продрезерв 5, ТОВ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Аналітик кредитних ризиків (статистична звітність), вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7262209/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Sense Bank</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sense Bank</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Data-аналітик, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7268356/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Vyriy</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Vyriy</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Діловод-аналітик з озброєння, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6465664/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>24 ОМБр імені короля Данила</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>24 ОМБр імені короля Данила</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>50 000-60 000 грн</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Аналітик (закупівлі), вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7036495/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>EVA, лінія магазинів</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>EVA, лінія магазинів</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Податковий аналітик, економіст, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/6150991/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Креді Агріколь, банк</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Креді Агріколь, банк</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Аналітик, аналітикиня інформаційних систем, Data engineer, DWH developer, вакансія від 4 листопада 2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.work.ua/jobs/7010515/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ПроКредит Банк</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ПроКредит Банк</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>not_mentioned</t>
         </is>
       </c>
     </row>

--- a/workua_jobs.xlsx
+++ b/workua_jobs.xlsx
@@ -463,39 +463,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data analyst, аналітик 1С у Зазимʼє, вакансія від 4 листопада 2025</t>
+          <t>Фінансовий аналітик, вакансія від 31 жовтня 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/5123740/</t>
+          <t>https://www.work.ua/jobs/7119214/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Аква Родос</t>
+          <t>NDA Recruitment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Аква Родос</t>
+          <t>Київ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>50 000 грн</t>
+          <t>not_mentioned</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Фінансовий аналітик (управлінський і бухгалтерський облік), вакансія від 3 листопада 2025</t>
+          <t>Менеджер з комерційної аналітики, вакансія від 31 жовтня 2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7208020/</t>
+          <t>https://www.work.ua/jobs/7331443/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>, Агенція</t>
+          <t>Київ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,22 +517,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Фінансовий аналітик, вакансія від 31 жовтня 2025</t>
+          <t>Middle Data, Product Analyst, вакансія від 30 жовтня 2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7119214/</t>
+          <t>https://www.work.ua/jobs/6785923/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NDA Recruitment</t>
+          <t>Work.ua</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>, Агенція</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,49 +544,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Менеджер з комерційної аналітики, вакансія від 31 жовтня 2025</t>
+          <t>Technical QA, Business Analyst (SaaS Platform), вакансія від 30 жовтня 2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7331443/</t>
+          <t>https://www.work.ua/jobs/7326622/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NDA Recruitment</t>
+          <t>BlueBox</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>, Агенція</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>not_mentioned</t>
+          <t>60 000-80 000 грн</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Middle Data, Product Analyst, вакансія від 30 жовтня 2025</t>
+          <t>Business Analyst (ІТ), вакансія від 29 жовтня 2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6785923/</t>
+          <t>https://www.work.ua/jobs/7307461/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Work.ua</t>
+          <t>АТБ-маркет</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Work.ua</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,49 +598,49 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Technical QA, Business Analyst (SaaS Platform), вакансія від 30 жовтня 2025</t>
+          <t>Data analyst, аналітик 1С у Зазимʼє, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7326622/</t>
+          <t>https://www.work.ua/jobs/5123740/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BlueBox</t>
+          <t>Аква Родос</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BlueBox</t>
+          <t>Зазимʼя шукаємо у Києві</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>60 000-80 000 грн</t>
+          <t>50 000 грн</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Business Analyst (ІТ), вакансія від 29 жовтня 2025</t>
+          <t>Фінансовий аналітик (управлінський і бухгалтерський облік), вакансія від 3 листопада 2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7307461/</t>
+          <t>https://www.work.ua/jobs/7208020/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>АТБ-маркет</t>
+          <t>NDA Recruitment</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>АТБ-маркет</t>
+          <t>Київ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,22 +652,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Бізнес-аналітик (ERP Odoo), вакансія від 4 листопада 2025</t>
+          <t>Аналітик із закупівель (Фарма), вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/5032993/</t>
+          <t>https://www.work.ua/jobs/7346203/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>Arte Business Group</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>Київ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,76 +679,76 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Фінансовий аналітик, вакансія від 4 листопада 2025</t>
+          <t>System Analyst, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7345855/</t>
+          <t>https://www.work.ua/jobs/7317946/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UDP Renewables</t>
+          <t>Sense Bank</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UDP Renewables</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>40 000 грн</t>
+          <t>not_mentioned</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Data-аналітик (FMCG-сегмент), вакансія від 4 листопада 2025</t>
+          <t>Бізнес-аналітик, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7345798/</t>
+          <t>https://www.work.ua/jobs/7104781/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Обертоси, ТМ</t>
+          <t>ViyarTech</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Обертоси, ТМ</t>
+          <t>70 км від центру</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31 000-35 000 грн</t>
+          <t>not_mentioned</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Бізнес-аналітик, вакансія від 4 листопада 2025</t>
+          <t>Керівник напрямку аналітики, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7345774/</t>
+          <t>https://www.work.ua/jobs/5648901/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Odd Systems</t>
+          <t>UGB еко банк країни (АБ УКРГАЗБАНК)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Odd Systems</t>
+          <t>Київ</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,49 +760,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Майстер, аналітик з ціноутворення з вартості послуг електропостачання, вакансія від 4 листопада 2025</t>
+          <t>Головний економіст відділу звітності та аналітики департаменту сталого банкінгу, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7345735/</t>
+          <t>https://www.work.ua/jobs/7265578/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Луцька філія Волинського обласного центру зайнятості</t>
+          <t>UGB еко банк країни (АБ УКРГАЗБАНК)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>, Агенція</t>
+          <t>14 км від центру</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18 000 грн</t>
+          <t>not_mentioned</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Middle Business Data Analyst/BI engineer, вакансія від 4 листопада 2025</t>
+          <t>Бізнес-аналітик (ERP Odoo), вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7083883/</t>
+          <t>https://www.work.ua/jobs/5032993/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nix</t>
+          <t>А4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nix</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -814,49 +814,49 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Бізнес-аналітик, консультант (BAS КУП, ERP), вакансія від 4 листопада 2025</t>
+          <t>ІТ-аналітик бізнес-процесів, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7184089/</t>
+          <t>https://www.work.ua/jobs/5658496/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>Global Logistics</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>65 км від центру</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>not_mentioned</t>
+          <t>55 000-75 500 грн</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Бізнес-аналітик, консультант (BAS ERP 2.5), вакансія від 4 листопада 2025</t>
+          <t>Data engineer, аналітик даних, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/5379004/</t>
+          <t>https://www.work.ua/jobs/7292791/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>Національний банк України</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>08 км від центру</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -868,54 +868,54 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Провідний експерт, аналітик програми з питань житла, вакансія від 4 листопада 2025</t>
+          <t>Фінансовий аналітик, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6587908/</t>
+          <t>https://www.work.ua/jobs/7345855/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Caritas Ukraine</t>
+          <t>UDP Renewables</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Caritas Ukraine</t>
+          <t>48 км від центру</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>not_mentioned</t>
+          <t>40 000 грн</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Бізнес-аналітик 1С, впроваджувач (ІТ), вакансія від 4 листопада 2025</t>
+          <t>Data-аналітик (FMCG-сегмент), вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/3490532/</t>
+          <t>https://www.work.ua/jobs/7345798/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Комплексне управління бізнес-процесами, ТОВ</t>
+          <t>Обертоси, ТМ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Комплексне управління бізнес-процесами, ТОВ</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>not_mentioned</t>
+          <t>31 000-35 000 грн</t>
         </is>
       </c>
     </row>
@@ -927,17 +927,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6707527/</t>
+          <t>https://www.work.ua/jobs/7345774/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Югфуд</t>
+          <t>Odd Systems</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Югфуд</t>
+          <t>Київ</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -949,103 +949,103 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Senior Data Analyst, вакансія від 4 листопада 2025</t>
+          <t>Майстер, аналітик з ціноутворення з вартості послуг електропостачання, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7321537/</t>
+          <t>https://www.work.ua/jobs/7345735/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ISpeedToLead</t>
+          <t>Луцька філія Волинського обласного центру зайнятості</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ISpeedToLead</t>
+          <t>Луцьк</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>not_mentioned</t>
+          <t>18 000 грн</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Аналітик, вакансія від 4 листопада 2025</t>
+          <t>Middle Business Data Analyst/BI engineer, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7262116/</t>
+          <t>https://www.work.ua/jobs/7083883/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hegelmann Transporte</t>
+          <t>Nix</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hegelmann Transporte</t>
+          <t xml:space="preserve"> Дистанційно</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>19 000-21 500 грн</t>
+          <t>not_mentioned</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Аналітик Power BI, вакансія від 4 листопада 2025</t>
+          <t>Бізнес-аналітик, консультант (BAS КУП, ERP), вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7265059/</t>
+          <t>https://www.work.ua/jobs/7184089/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Рейд, 17 Полтавська бригада НГУ</t>
+          <t>А4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Рейд, 17 Полтавська бригада НГУ</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25 000-125 000 грн</t>
+          <t>not_mentioned</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Аналітик з макроекономічного та фінансового прогнозування і моделювання, вакансія від 4 листопада 2025</t>
+          <t>Бізнес-аналітик, консультант (BAS ERP 2.5), вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6732610/</t>
+          <t>https://www.work.ua/jobs/5379004/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ощадбанк</t>
+          <t>А4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ощадбанк</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1057,49 +1057,49 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Аналітик у відділ внутрішньої безпеки, вакансія від 4 листопада 2025</t>
+          <t>Провідний експерт, аналітик програми з питань житла, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7318216/</t>
+          <t>https://www.work.ua/jobs/6587908/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6 центр рекрутингу Сил Безпілотних Систем</t>
+          <t>Caritas Ukraine</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6 центр рекрутингу Сил Безпілотних Систем</t>
+          <t>12 км від центру</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>50 000 грн</t>
+          <t>not_mentioned</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Кредитний аналітик департаменту малого та середнього бізнесу, вакансія від 4 листопада 2025</t>
+          <t>Бізнес-аналітик 1С, впроваджувач (ІТ), вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/5532751/</t>
+          <t>https://www.work.ua/jobs/3490532/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>UGB еко банк країни (АБ УКРГАЗБАНК)</t>
+          <t>Комплексне управління бізнес-процесами, ТОВ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>UGB еко банк країни (АБ УКРГАЗБАНК)</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1111,22 +1111,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Аналітик департаменту електронної комерції (e-commerce) у Київ, вакансія від 4 листопада 2025</t>
+          <t>Бізнес-аналітик, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7261519/</t>
+          <t>https://www.work.ua/jobs/6707527/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Prostor</t>
+          <t>Югфуд</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Prostor</t>
+          <t>76 км від центру</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1138,22 +1138,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Technical Analyst, вакансія від 4 листопада 2025</t>
+          <t>Senior Data Analyst, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6239165/</t>
+          <t>https://www.work.ua/jobs/7321537/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Vipcem</t>
+          <t>ISpeedToLead</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Vipcem</t>
+          <t xml:space="preserve"> Київ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1165,76 +1165,76 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Бізнес-аналітик, вакансія від 4 листопада 2025</t>
+          <t>Аналітик, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7344928/</t>
+          <t>https://www.work.ua/jobs/7262116/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Team Play, Recruiting agency</t>
+          <t>Hegelmann Transporte</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>, Агенція</t>
+          <t>58 км від центру</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>60 000-80 000 грн</t>
+          <t>19 000-21 500 грн</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Аналітик бізнес-процесів, вакансія від 4 листопада 2025</t>
+          <t>Аналітик Power BI, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6810310/</t>
+          <t>https://www.work.ua/jobs/7265059/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Подорожник, мережа аптек</t>
+          <t>Рейд, 17 Полтавська бригада НГУ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Подорожник, мережа аптек</t>
+          <t>Вся Україна</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>not_mentioned</t>
+          <t>25 000-125 000 грн</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Big Data analyst, аналітик даних, вакансія від 4 листопада 2025</t>
+          <t>Аналітик з макроекономічного та фінансового прогнозування і моделювання, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7084639/</t>
+          <t>https://www.work.ua/jobs/6732610/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Київстар</t>
+          <t>Ощадбанк</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Київстар</t>
+          <t>35 км від центру</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1246,49 +1246,49 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Аналітик складського обліку, вакансія від 4 листопада 2025</t>
+          <t>Аналітик у відділ внутрішньої безпеки, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/4924845/</t>
+          <t>https://www.work.ua/jobs/7318216/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Прогрес, ТОВ (машинобудування)</t>
+          <t>6 центр рекрутингу Сил Безпілотних Систем</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Прогрес, ТОВ (машинобудування)</t>
+          <t>Вся Україна</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>not_mentioned</t>
+          <t>50 000 грн</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Data analyst, вакансія від 4 листопада 2025</t>
+          <t>Кредитний аналітик департаменту малого та середнього бізнесу, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7115023/</t>
+          <t>https://www.work.ua/jobs/5532751/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ajax Systems</t>
+          <t>UGB еко банк країни (АБ УКРГАЗБАНК)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ajax Systems</t>
+          <t>Київ</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1300,22 +1300,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Аналітик/аналітикиня відділу аналізу кредитних ризиків бізнес-клієнтів, вакансія від 4 листопада 2025</t>
+          <t>Аналітик департаменту електронної комерції (e-commerce) у Київ, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7010602/</t>
+          <t>https://www.work.ua/jobs/7261519/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ПроКредит Банк</t>
+          <t>Prostor</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ПроКредит Банк</t>
+          <t>Київ шукаємо у Дніпрі</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1327,22 +1327,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Аналітик 1С, вакансія від 4 листопада 2025</t>
+          <t>Technical Analyst, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6916918/</t>
+          <t>https://www.work.ua/jobs/6239165/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>STV group</t>
+          <t>Vipcem</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>STV group</t>
+          <t>Київ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1354,49 +1354,49 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Аналітик 1C ВАS, вакансія від 4 листопада 2025</t>
+          <t>Бізнес-аналітик, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6426736/</t>
+          <t>https://www.work.ua/jobs/7344928/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Укрпромінвест-Агро</t>
+          <t>Team Play, Recruiting agency</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Укрпромінвест-Агро</t>
+          <t>Одеса</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>not_mentioned</t>
+          <t>60 000-80 000 грн</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Business Analyst Trainee (Individual Training, BA Internship), вакансія від 4 листопада 2025</t>
+          <t>Аналітик бізнес-процесів, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6512380/</t>
+          <t>https://www.work.ua/jobs/6810310/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SysGears</t>
+          <t>Подорожник, мережа аптек</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SysGears</t>
+          <t>24 км від центру</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1408,22 +1408,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Помічник фінансового аналітика, вакансія від 4 листопада 2025</t>
+          <t>Big Data analyst, аналітик даних, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7021831/</t>
+          <t>https://www.work.ua/jobs/7084639/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Контракт Продрезерв 5, ТОВ</t>
+          <t>Київстар</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Контракт Продрезерв 5, ТОВ</t>
+          <t>Київ</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1435,22 +1435,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Аналітик кредитних ризиків (статистична звітність), вакансія від 4 листопада 2025</t>
+          <t>Аналітик складського обліку, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7262209/</t>
+          <t>https://www.work.ua/jobs/4924845/</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sense Bank</t>
+          <t>Прогрес, ТОВ (машинобудування)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sense Bank</t>
+          <t>24 км від центру</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1462,22 +1462,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Data-аналітик, вакансія від 4 листопада 2025</t>
+          <t>Data analyst, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7268356/</t>
+          <t>https://www.work.ua/jobs/7115023/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Vyriy</t>
+          <t>Ajax Systems</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Vyriy</t>
+          <t>62 км від центру</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1489,49 +1489,49 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Діловод-аналітик з озброєння, вакансія від 4 листопада 2025</t>
+          <t>Аналітик/аналітикиня відділу аналізу кредитних ризиків бізнес-клієнтів, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6465664/</t>
+          <t>https://www.work.ua/jobs/7010602/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>24 ОМБр імені короля Данила</t>
+          <t>ПроКредит Банк</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>24 ОМБр імені короля Данила</t>
+          <t>110 км від центру</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>50 000-60 000 грн</t>
+          <t>not_mentioned</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Аналітик (закупівлі), вакансія від 4 листопада 2025</t>
+          <t>Аналітик 1С, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7036495/</t>
+          <t>https://www.work.ua/jobs/6916918/</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EVA, лінія магазинів</t>
+          <t>STV group</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EVA, лінія магазинів</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1543,22 +1543,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Податковий аналітик, економіст, вакансія від 4 листопада 2025</t>
+          <t>Аналітик 1C ВАS, вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/6150991/</t>
+          <t>https://www.work.ua/jobs/6426736/</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Креді Агріколь, банк</t>
+          <t>Укрпромінвест-Агро</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Креді Агріколь, банк</t>
+          <t>Київ</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1570,22 +1570,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Аналітик, аналітикиня інформаційних систем, Data engineer, DWH developer, вакансія від 4 листопада 2025</t>
+          <t>Business Analyst Trainee (Individual Training, BA Internship), вакансія від 4 листопада 2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.work.ua/jobs/7010515/</t>
+          <t>https://www.work.ua/jobs/6512380/</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ПроКредит Банк</t>
+          <t>SysGears</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ПроКредит Банк</t>
+          <t>Дистанційно</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
